--- a/Controller/controller_V3_matlab/customer_inputs_CUSTOMER_0_DEG.xlsx
+++ b/Controller/controller_V3_matlab/customer_inputs_CUSTOMER_0_DEG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattl\Documents\Purdue\Fall 2025\ME 463\ME-463-Can-Crusher\Controller\controller_V3_matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/GitHub/ME-463-Can-Crusher/Controller/controller_V3_matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED4B0D-5C74-4FD9-B5F8-B8A48B184A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07626496-C262-C04A-86B0-65133B08A3FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Inputs" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Hold Time [s]</t>
   </si>
@@ -54,12 +43,6 @@
   </si>
   <si>
     <t>Load Step Number</t>
-  </si>
-  <si>
-    <t>Check-out</t>
-  </si>
-  <si>
-    <t>Limit Load</t>
   </si>
   <si>
     <t>Ultimate Load</t>
@@ -75,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -200,7 +183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,22 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38EA12-ABC1-4B15-987D-30F0BE17A6DB}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -560,18 +540,12 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -581,110 +555,71 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" s="9">
-        <f>D3/1.4</f>
-        <v>2071.4285714285716</v>
-      </c>
-      <c r="D3">
         <v>2900</v>
       </c>
-      <c r="E3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <f>D4/1.4</f>
-        <v>6428.5714285714294</v>
-      </c>
-      <c r="D4">
         <f>750*12</f>
         <v>9000</v>
       </c>
-      <c r="E4">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="9">
-        <f t="shared" ref="C4:C5" si="0">D5/1.4</f>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6">
         <v>60</v>
       </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>120</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
-        <v>60</v>
-      </c>
-      <c r="D7" s="7">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7">
-        <v>30</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
